--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2063492.244689324</v>
+        <v>2168431.474864689</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9706309.082888015</v>
+        <v>9722626.529948648</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>259.4153547092172</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>37.84125266805163</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.3514341322545</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>197.0933240914821</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>163.4436158013537</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>213.861488180113</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>247.0552981999436</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>42.73322656085733</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>184.6448939492139</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>348.3174602231726</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02512141542746121</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>34.31448842516952</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428843</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,22 +1660,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.5380597272478</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8253826161873148</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>117.4665281367395</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>61.66004604095091</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.2774686880308</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U31" t="n">
-        <v>275.3300239197266</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>33.8289189178749</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>98.4268323040492</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722587</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>164.3593773323624</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986262</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>174.7683347992597</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>172.3645574474272</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>247.2924896597629</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284017</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>113.7076464771373</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1838.755147556639</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1838.755147556639</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1480.489448949888</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1094.701196351644</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>683.7152915620366</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3177.09166559278</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>3177.09166559278</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>3177.09166559278</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1838.755147556639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>790.7764984014357</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783663</v>
+        <v>2064.043008326627</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577776</v>
+        <v>1809.35852012074</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408152</v>
+        <v>1809.35852012074</v>
       </c>
       <c r="X4" t="n">
-        <v>644.3338566427979</v>
+        <v>1581.368969222723</v>
       </c>
       <c r="Y4" t="n">
-        <v>423.5412774992677</v>
+        <v>1581.368969222723</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1109.405652212942</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1109.405652212942</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>698.4197474233347</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>282.7149971476235</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>3109.584116376734</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.676735765777</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416653</v>
+        <v>1672.191441142815</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1672.191441142815</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7831921883597</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7831921883597</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7831921883597</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7831921883597</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,19 +4959,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1361.012987209659</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740078</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121712</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121712</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270511</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5203,46 +5205,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.91737983267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510515</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854713</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648826</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611865</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703178</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408905</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756265</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969311</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474225</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474225</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474225</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>94.65038286230248</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038304</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396413</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359452</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>983.340348461435</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6014,19 +6016,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129204</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>4101.537227310362</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>4653.446957549649</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290468</v>
+        <v>3007.624207651098</v>
       </c>
       <c r="C25" t="n">
-        <v>699.7311804011399</v>
+        <v>2838.688024723191</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>2688.571385310855</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>2688.571385310855</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>2541.681437812945</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024105</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T25" t="n">
-        <v>2077.590354893597</v>
+        <v>4471.231687421534</v>
       </c>
       <c r="U25" t="n">
-        <v>1788.515128237794</v>
+        <v>4182.156460765732</v>
       </c>
       <c r="V25" t="n">
-        <v>1788.515128237794</v>
+        <v>3927.471972559845</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.097958200834</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302816</v>
+        <v>3410.065251624867</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159286</v>
+        <v>3189.272672481337</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6217,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913851</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972543</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.67509321183</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2815.530845237134</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.594662309227</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3990.063098351769</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V28" t="n">
-        <v>3735.378610145882</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W28" t="n">
-        <v>3445.961440108921</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X28" t="n">
-        <v>3217.971889210904</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y28" t="n">
-        <v>2997.179310067374</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452619</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718135</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2951.542595286851</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>2782.606412358944</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.489772946608</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>2484.576679364215</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>4126.074848401486</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>3871.390360195599</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>3581.973190158638</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>3353.983639260621</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>3133.191060117091</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913444</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084665</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300423</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926975</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481581</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398592</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398592</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398592</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>3300.24644065542</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>3131.310257727513</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978459</v>
+        <v>2981.193618315177</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8772357154528</v>
+        <v>2833.280524732784</v>
       </c>
       <c r="F34" t="n">
-        <v>127.9872882175424</v>
+        <v>2686.390577234873</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797183</v>
+        <v>2519.194477949753</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>3481.894905485659</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>3481.894905485659</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.8692823226939</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>473.9330993947871</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8164599824514</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000582</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>824.5177471529337</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,19 +7201,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591808</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263525</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
         <v>929.7309773356195</v>
@@ -7327,16 +7329,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135312</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237294</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093764</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7436,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.73869457197</v>
+        <v>3047.734188001555</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644063</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231727</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649334</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
         <v>2337.686731866304</v>
@@ -7570,49 +7572,49 @@
         <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
         <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053497</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076438</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>4038.586459480718</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V43" t="n">
-        <v>4038.586459480718</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W43" t="n">
-        <v>3749.169289443757</v>
+        <v>3678.164782873342</v>
       </c>
       <c r="X43" t="n">
-        <v>3521.17973854574</v>
+        <v>3450.175231975325</v>
       </c>
       <c r="Y43" t="n">
-        <v>3300.38715940221</v>
+        <v>3229.382652831795</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2332.106875017495</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2112.505410040436</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>199.7516311504066</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>54.95314511566528</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>97.5789915191115</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392193546</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.29392045468947</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.4693302300366</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>101.1181252153553</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>103.8640922513179</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>99.1279816392575</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U31" t="n">
-        <v>10.85445046951759</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>41.86788054217469</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>61.35027805667477</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="38">
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>114.1584408891638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.89198472948121</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>34.97276993489101</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>67.31863952450725</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>850107.0296210631</v>
+        <v>858425.7281225623</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>850107.0296210631</v>
+        <v>858425.7281225623</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752547</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.284775254</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752548</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.284775254</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810783</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810783</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810795</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756683</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756663</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675663</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756652</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756661</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756754</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756681</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756655</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-929947.6382654884</v>
+        <v>-749160.5465562618</v>
       </c>
       <c r="C6" t="n">
-        <v>398797.1074621046</v>
+        <v>365591.2370196581</v>
       </c>
       <c r="D6" t="n">
-        <v>398797.1074621044</v>
+        <v>206169.9670217665</v>
       </c>
       <c r="E6" t="n">
-        <v>149309.0927872357</v>
+        <v>149309.0927872352</v>
       </c>
       <c r="F6" t="n">
-        <v>474721.5545945904</v>
+        <v>474721.5545945907</v>
       </c>
       <c r="G6" t="n">
-        <v>474721.5545945908</v>
+        <v>474721.5545945905</v>
       </c>
       <c r="H6" t="n">
-        <v>474721.5545945903</v>
+        <v>474721.5545945906</v>
       </c>
       <c r="I6" t="n">
-        <v>474721.554594591</v>
+        <v>474721.5545945906</v>
       </c>
       <c r="J6" t="n">
-        <v>257190.3521973134</v>
+        <v>307116.3767846084</v>
       </c>
       <c r="K6" t="n">
-        <v>474721.5545945908</v>
+        <v>474721.5545945907</v>
       </c>
       <c r="L6" t="n">
-        <v>474721.5545945909</v>
+        <v>426427.5845864004</v>
       </c>
       <c r="M6" t="n">
-        <v>389666.5266590787</v>
+        <v>389666.5266590788</v>
       </c>
       <c r="N6" t="n">
-        <v>474721.5545945902</v>
+        <v>474721.5545945906</v>
       </c>
       <c r="O6" t="n">
-        <v>474721.5545945909</v>
+        <v>474721.5545945905</v>
       </c>
       <c r="P6" t="n">
         <v>474721.5545945907</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>152.1323480637367</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>166.0767174715685</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.48054604968276</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>89.13383002971852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>137.5749367610516</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>135.3794805373</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>39.17185592125705</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>182.9764288281798</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>180.6279978217937</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>6.365581397510311</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.3959266075038</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>252.2085099114215</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29101,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>196.3041720119</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551114</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>301.9817606876396</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32785,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950826</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33262,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>248.74493692092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,22 +33499,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,13 +33523,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.537151478685</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,25 +33973,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>352.6335057535154</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>57.74979223202579</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191381</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35726,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075244</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396427</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096311</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P27" t="n">
-        <v>37.76383318075232</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410458</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342406</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410458</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2168431.474864689</v>
+        <v>2164335.833359924</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9722626.529948648</v>
+        <v>9722626.529948646</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>337.7433820845376</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>259.4153547092172</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.0933240914821</v>
+        <v>243.203995354727</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>141.8253782118889</v>
       </c>
       <c r="H5" t="n">
-        <v>163.4436158013537</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>247.0552981999436</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>348.3174602231726</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>188.8108690340833</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>34.31448842516952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>48.85497112745768</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.53432244436627</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>61.66004604095091</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>217.6587144826188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018821</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>98.4268323040492</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,19 +3711,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>174.7683347992597</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>251.5502284017</v>
+        <v>283.1932821152809</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>113.7076464771373</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.755147556639</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>1838.755147556639</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="D2" t="n">
-        <v>1480.489448949888</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>1094.701196351644</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>683.7152915620366</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.755147556639</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014357</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1399.720504392483</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="C4" t="n">
-        <v>1399.720504392483</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D4" t="n">
-        <v>1399.720504392483</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392483</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075599</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>2064.043008326627</v>
+        <v>1194.156770865947</v>
       </c>
       <c r="V4" t="n">
-        <v>1809.35852012074</v>
+        <v>1194.156770865947</v>
       </c>
       <c r="W4" t="n">
-        <v>1809.35852012074</v>
+        <v>904.7396008289868</v>
       </c>
       <c r="X4" t="n">
-        <v>1581.368969222723</v>
+        <v>676.7500499309695</v>
       </c>
       <c r="Y4" t="n">
-        <v>1581.368969222723</v>
+        <v>455.9574707874393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1467.671350819693</v>
+        <v>1719.977393518933</v>
       </c>
       <c r="C5" t="n">
-        <v>1467.671350819693</v>
+        <v>1719.977393518933</v>
       </c>
       <c r="D5" t="n">
-        <v>1109.405652212942</v>
+        <v>1361.711694912183</v>
       </c>
       <c r="E5" t="n">
-        <v>1109.405652212942</v>
+        <v>975.9234423139387</v>
       </c>
       <c r="F5" t="n">
-        <v>698.4197474233347</v>
+        <v>564.9375375243312</v>
       </c>
       <c r="G5" t="n">
-        <v>282.7149971476235</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056584</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795504</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1467.671350819693</v>
+        <v>2106.577233583055</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1087.683159487371</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1087.683159487371</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W7" t="n">
-        <v>1087.683159487371</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1087.683159487371</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1087.683159487371</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.191441142815</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C8" t="n">
-        <v>1672.191441142815</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>654.0504646744041</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>268.2622120761599</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118627</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142815</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4883,22 +4883,22 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218339</v>
@@ -4965,13 +4965,13 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1916.013548943703</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415546</v>
+        <v>1626.910682069347</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.012987209659</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.351887790296</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.351887790296</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5178,25 +5178,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>802.9288273958689</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>633.992644467962</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5442,46 +5442,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1722.776592304617</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1433.359422267656</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>1205.369871369639</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>984.5772922261086</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5600,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817745</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3007.624207651098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2838.688024723191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2688.571385310855</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2688.571385310855</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2541.681437812945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421534</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765732</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559845</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3410.065251624867</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3189.272672481337</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1502.919304948441</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1213.50213491148</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>985.5125840134626</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,25 +6484,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3300.24644065542</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3131.310257727513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2981.193618315177</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2833.280524732784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2686.390577234873</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2519.194477949753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3999.301626420637</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3709.884456383676</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3481.894905485659</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3481.894905485659</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7405,40 +7405,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,10 +7447,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3047.734188001555</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>2878.798005073648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.255922673039</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>3678.164782873342</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>3450.175231975325</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>3229.382652831795</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2332.106875017495</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2112.505410040436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>199.7516311504066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>129.4330134067482</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
-        <v>54.95314511566528</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>97.5789915191115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.08115057384609</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.8640922513179</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194589</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>41.86788054217469</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>34.97276993489101</v>
+        <v>3.329716221310093</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>67.31863952450725</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924287</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.284775254</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
@@ -26355,7 +26355,7 @@
         <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.9700081906</v>
       </c>
       <c r="M3" t="n">
         <v>85055.0279355119</v>
@@ -26426,40 +26426,40 @@
         <v>88524.23512810795</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756566</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756652</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="I4" t="n">
-        <v>9337.200356756652</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756539</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-749160.5465562618</v>
+        <v>-749160.546556262</v>
       </c>
       <c r="C6" t="n">
-        <v>365591.2370196581</v>
+        <v>365591.237019658</v>
       </c>
       <c r="D6" t="n">
-        <v>206169.9670217665</v>
+        <v>206169.9670217666</v>
       </c>
       <c r="E6" t="n">
-        <v>149309.0927872352</v>
+        <v>148961.7135328786</v>
       </c>
       <c r="F6" t="n">
-        <v>474721.5545945907</v>
+        <v>474374.1753402334</v>
       </c>
       <c r="G6" t="n">
-        <v>474721.5545945905</v>
+        <v>474374.175340234</v>
       </c>
       <c r="H6" t="n">
-        <v>474721.5545945906</v>
+        <v>474374.1753402337</v>
       </c>
       <c r="I6" t="n">
-        <v>474721.5545945906</v>
+        <v>474374.1753402338</v>
       </c>
       <c r="J6" t="n">
-        <v>307116.3767846084</v>
+        <v>306768.9975302509</v>
       </c>
       <c r="K6" t="n">
-        <v>474721.5545945907</v>
+        <v>474374.1753402338</v>
       </c>
       <c r="L6" t="n">
-        <v>426427.5845864004</v>
+        <v>426080.2053320432</v>
       </c>
       <c r="M6" t="n">
-        <v>389666.5266590788</v>
+        <v>389319.1474047218</v>
       </c>
       <c r="N6" t="n">
-        <v>474721.5545945906</v>
+        <v>474374.1753402337</v>
       </c>
       <c r="O6" t="n">
-        <v>474721.5545945905</v>
+        <v>474374.1753402336</v>
       </c>
       <c r="P6" t="n">
-        <v>474721.5545945907</v>
+        <v>474374.1753402339</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16.93965953614531</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>152.1323480637367</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>89.13383002971852</v>
+        <v>43.02315876647364</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>269.7223245610651</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5749367610516</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>39.17185592125705</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>80.94049690661271</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.365581397510311</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>218.0651767076282</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.3807601228278</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>252.2085099114215</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29474,7 +29474,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-3.758651504979532e-12</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-9.003997547551988e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-9.003997547551986e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32320,10 +32320,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32335,10 +32335,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32724,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,7 +33982,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34210,16 +34210,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882568</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>245.9137357376028</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>352.6335057535154</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36676,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36770,7 +36770,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066212</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,7 +37630,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164335.833359924</v>
+        <v>2166096.363662709</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>141.8253782118889</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>225.9004289758749</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>188.8108690340833</v>
+        <v>297.9986308222597</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.53432244436627</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146487</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018821</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428166</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>166.7797097944361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>283.1932821152809</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4330,10 +4330,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.293511287797</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>2047.363946463959</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
-        <v>2294.546680296256</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4482,22 +4482,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1719.977393518933</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="C5" t="n">
-        <v>1719.977393518933</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="D5" t="n">
-        <v>1361.711694912183</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="E5" t="n">
-        <v>975.9234423139387</v>
+        <v>1106.119693124105</v>
       </c>
       <c r="F5" t="n">
-        <v>564.9375375243312</v>
+        <v>695.133788334497</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>279.4290380587859</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583055</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y5" t="n">
-        <v>2106.577233583055</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,16 +4649,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4725,16 +4725,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221566</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744041</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761599</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4895,28 +4895,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4947,22 +4947,22 @@
         <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192571</v>
@@ -5044,31 +5044,31 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5193,10 +5193,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958689</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467962</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908938</v>
@@ -5430,58 +5430,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797698</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510504</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304617</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267656</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369639</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261086</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5667,49 +5667,49 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
         <v>1202.091371290588</v>
@@ -5752,13 +5752,13 @@
         <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5889,16 +5889,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,28 +5910,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2437.724555511392</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,55 +6928,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192741</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="41">
@@ -7405,40 +7405,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>129.4330134067482</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-7.72911902643801e-14</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.08115057384609</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194231</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194589</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194223</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>119.404764594808</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>3.329716221310093</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835864.4801924287</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752549</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752545</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081906</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810795</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.200356756563</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756652</v>
+        <v>9337.200356756559</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756539</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-749160.546556262</v>
       </c>
       <c r="C6" t="n">
-        <v>365591.237019658</v>
+        <v>365591.2370196575</v>
       </c>
       <c r="D6" t="n">
-        <v>206169.9670217666</v>
+        <v>206169.9670217665</v>
       </c>
       <c r="E6" t="n">
-        <v>148961.7135328786</v>
+        <v>149274.3548618</v>
       </c>
       <c r="F6" t="n">
-        <v>474374.1753402334</v>
+        <v>474686.8166691544</v>
       </c>
       <c r="G6" t="n">
-        <v>474374.175340234</v>
+        <v>474686.8166691551</v>
       </c>
       <c r="H6" t="n">
-        <v>474374.1753402337</v>
+        <v>474686.8166691548</v>
       </c>
       <c r="I6" t="n">
-        <v>474374.1753402338</v>
+        <v>474686.8166691548</v>
       </c>
       <c r="J6" t="n">
-        <v>306768.9975302509</v>
+        <v>307081.6388591722</v>
       </c>
       <c r="K6" t="n">
-        <v>474374.1753402338</v>
+        <v>474686.8166691557</v>
       </c>
       <c r="L6" t="n">
-        <v>426080.2053320432</v>
+        <v>426392.8466609644</v>
       </c>
       <c r="M6" t="n">
-        <v>389319.1474047218</v>
+        <v>389631.7887336429</v>
       </c>
       <c r="N6" t="n">
-        <v>474374.1753402337</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="O6" t="n">
-        <v>474374.1753402336</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="P6" t="n">
-        <v>474374.1753402339</v>
+        <v>474686.8166691551</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>269.7223245610651</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>75.11812358653046</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>218.0651767076282</v>
+        <v>108.8774149194517</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29474,7 +29474,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-3.758651504979532e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-9.003997547551988e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.003997547551986e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33271,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982891</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>245.9137357376028</v>
+        <v>245.9137357376033</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191267</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066212</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>302.0934576762708</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
